--- a/data_quarter/zb/建筑业/建筑业企业资产负债情况.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业资产负债情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,41 @@
           <t>建筑业企业资产_累计值</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业存货</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业应收工程款</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业流动资产</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业竣工工程</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业负债</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业资产</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -489,61 +519,115 @@
       <c r="G2" t="n">
         <v>82983.39999999999</v>
       </c>
+      <c r="H2" t="n">
+        <v>16288.34</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13764.18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>66111.16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4690.95</v>
+      </c>
+      <c r="L2" t="n">
+        <v>56467.65</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82983.39999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20120.31</v>
+        <v>18749.09</v>
       </c>
       <c r="C3" t="n">
-        <v>18727.45</v>
+        <v>16493.33</v>
       </c>
       <c r="D3" t="n">
-        <v>82713.28999999999</v>
+        <v>81775.46000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>6767.97</v>
+        <v>5929.38</v>
       </c>
       <c r="F3" t="n">
-        <v>70127.12</v>
+        <v>66477.8</v>
       </c>
       <c r="G3" t="n">
-        <v>102124.46</v>
+        <v>96297.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2460.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2729.150000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15664.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1238.43</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10010.15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13314.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18749.09</v>
+        <v>20120.31</v>
       </c>
       <c r="C4" t="n">
-        <v>16493.33</v>
+        <v>18727.45</v>
       </c>
       <c r="D4" t="n">
-        <v>81775.46000000001</v>
+        <v>82713.28999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>5929.38</v>
+        <v>6767.97</v>
       </c>
       <c r="F4" t="n">
-        <v>66477.8</v>
+        <v>70127.12</v>
       </c>
       <c r="G4" t="n">
-        <v>96297.7</v>
+        <v>102124.46</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1371.220000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2234.119999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>937.8299999999872</v>
+      </c>
+      <c r="K4" t="n">
+        <v>838.5900000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3649.319999999992</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5826.760000000009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -564,61 +648,115 @@
       <c r="G5" t="n">
         <v>102442.76</v>
       </c>
+      <c r="H5" t="n">
+        <v>18845.91</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17422.06</v>
+      </c>
+      <c r="J5" t="n">
+        <v>81633.97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6047.68</v>
+      </c>
+      <c r="L5" t="n">
+        <v>69274.94</v>
+      </c>
+      <c r="M5" t="n">
+        <v>318.2999999999884</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22986.41</v>
+        <v>21526.79</v>
       </c>
       <c r="C6" t="n">
-        <v>22969.98</v>
+        <v>20984.2</v>
       </c>
       <c r="D6" t="n">
-        <v>103377.34</v>
+        <v>90730.52</v>
       </c>
       <c r="E6" t="n">
-        <v>8350.940000000001</v>
+        <v>7371.51</v>
       </c>
       <c r="F6" t="n">
-        <v>80755.69</v>
+        <v>76815.28</v>
       </c>
       <c r="G6" t="n">
-        <v>124523.71</v>
+        <v>112340.32</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2680.880000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3562.139999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9096.550000000003</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1323.83</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7540.339999999997</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9897.560000000012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21526.79</v>
+        <v>22986.41</v>
       </c>
       <c r="C7" t="n">
-        <v>20984.2</v>
+        <v>22969.98</v>
       </c>
       <c r="D7" t="n">
-        <v>90730.52</v>
+        <v>103377.34</v>
       </c>
       <c r="E7" t="n">
-        <v>7371.51</v>
+        <v>8350.940000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>76815.28</v>
+        <v>80755.69</v>
       </c>
       <c r="G7" t="n">
-        <v>112340.32</v>
+        <v>124523.71</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1459.619999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1985.779999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12646.81999999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>979.4300000000003</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3940.410000000003</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12183.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -637,57 +775,105 @@
       <c r="G8" t="n">
         <v>119244.87</v>
       </c>
+      <c r="H8" t="n">
+        <v>22060.36</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22194.22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>97392</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1028.020000000004</v>
+      </c>
+      <c r="M8" t="n">
+        <v>119244.87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26209.36</v>
+        <v>24469.49</v>
       </c>
       <c r="C9" t="n">
-        <v>28757.73</v>
+        <v>26774.32</v>
       </c>
       <c r="D9" t="n">
-        <v>116982.93</v>
+        <v>106724.98</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>95888.28999999999</v>
+        <v>89820.71000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>144088.91</v>
+        <v>130115.92</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2409.130000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4580.099999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9332.979999999996</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>8037</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10871.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24469.49</v>
+        <v>26209.36</v>
       </c>
       <c r="C10" t="n">
-        <v>26774.32</v>
+        <v>28757.73</v>
       </c>
       <c r="D10" t="n">
-        <v>106724.98</v>
+        <v>116982.93</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>89820.71000000001</v>
+        <v>95888.28999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>130115.92</v>
+        <v>144088.91</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1739.869999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1983.41</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10257.95</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>6067.579999999987</v>
+      </c>
+      <c r="M10" t="n">
+        <v>13972.99000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -706,57 +892,105 @@
       <c r="G11" t="n">
         <v>133486.67</v>
       </c>
+      <c r="H11" t="n">
+        <v>25227.48</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25910.81</v>
+      </c>
+      <c r="J11" t="n">
+        <v>108926.01</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>91806.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>133486.67</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27690.41</v>
+        <v>26040.74</v>
       </c>
       <c r="C12" t="n">
-        <v>33132.31</v>
+        <v>30691.44</v>
       </c>
       <c r="D12" t="n">
-        <v>124747.05</v>
+        <v>116555.25</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>103495.5</v>
+        <v>98656.63</v>
       </c>
       <c r="G12" t="n">
-        <v>152400.69</v>
+        <v>143369.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>813.260000000002</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4780.629999999997</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7629.240000000005</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>6850.320000000007</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9882.629999999976</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26040.74</v>
+        <v>27690.41</v>
       </c>
       <c r="C13" t="n">
-        <v>30691.44</v>
+        <v>33132.31</v>
       </c>
       <c r="D13" t="n">
-        <v>116555.25</v>
+        <v>124747.05</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>98656.63</v>
+        <v>103495.5</v>
       </c>
       <c r="G13" t="n">
-        <v>143369.3</v>
+        <v>152400.69</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1649.669999999998</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2440.869999999999</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8191.800000000003</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>4838.869999999995</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9031.390000000014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -775,11 +1009,27 @@
       <c r="G14" t="n">
         <v>154751.77</v>
       </c>
+      <c r="H14" t="n">
+        <v>27307.44</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30154.61</v>
+      </c>
+      <c r="J14" t="n">
+        <v>121909.85</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>50.39999999999418</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2351.079999999987</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -798,11 +1048,27 @@
       <c r="G15" t="n">
         <v>167079.839999999</v>
       </c>
+      <c r="H15" t="n">
+        <v>1683.870000000003</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10749.59</v>
+      </c>
+      <c r="J15" t="n">
+        <v>18014.22999999998</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>11351.48000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12328.06999999902</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -819,6 +1085,22 @@
         <v>110349.01</v>
       </c>
       <c r="G16" t="n">
+        <v>162024.05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>27562</v>
+      </c>
+      <c r="I16" t="n">
+        <v>36013.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>132627.58</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>110349.01</v>
+      </c>
+      <c r="M16" t="n">
         <v>162024.05</v>
       </c>
     </row>

--- a/data_quarter/zb/建筑业/建筑业企业资产负债情况.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业资产负债情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,36 +464,6 @@
           <t>建筑业企业资产_累计值</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业存货</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业应收工程款</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业流动资产</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业竣工工程</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业负债</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业资产</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -519,109 +489,55 @@
       <c r="G2" t="n">
         <v>82983.39999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>16288.34</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13764.18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>66111.16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4690.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>56467.65</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82983.39999999999</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18749.09</v>
+        <v>20120.31</v>
       </c>
       <c r="C3" t="n">
-        <v>16493.33</v>
+        <v>18727.45</v>
       </c>
       <c r="D3" t="n">
-        <v>81775.46000000001</v>
+        <v>82713.28999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>5929.38</v>
+        <v>6767.97</v>
       </c>
       <c r="F3" t="n">
-        <v>66477.8</v>
+        <v>70127.12</v>
       </c>
       <c r="G3" t="n">
-        <v>96297.7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2460.75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2729.150000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>15664.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1238.43</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10010.15</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13314.3</v>
+        <v>102124.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20120.31</v>
+        <v>18749.09</v>
       </c>
       <c r="C4" t="n">
-        <v>18727.45</v>
+        <v>16493.33</v>
       </c>
       <c r="D4" t="n">
-        <v>82713.28999999999</v>
+        <v>81775.46000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>6767.97</v>
+        <v>5929.38</v>
       </c>
       <c r="F4" t="n">
-        <v>70127.12</v>
+        <v>66477.8</v>
       </c>
       <c r="G4" t="n">
-        <v>102124.46</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1371.220000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2234.119999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>937.8299999999872</v>
-      </c>
-      <c r="K4" t="n">
-        <v>838.5900000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3649.319999999992</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5826.760000000009</v>
+        <v>96297.7</v>
       </c>
     </row>
     <row r="5">
@@ -648,109 +564,55 @@
       <c r="G5" t="n">
         <v>102442.76</v>
       </c>
-      <c r="H5" t="n">
-        <v>18845.91</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17422.06</v>
-      </c>
-      <c r="J5" t="n">
-        <v>81633.97</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6047.68</v>
-      </c>
-      <c r="L5" t="n">
-        <v>69274.94</v>
-      </c>
-      <c r="M5" t="n">
-        <v>318.2999999999884</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21526.79</v>
+        <v>22986.41</v>
       </c>
       <c r="C6" t="n">
-        <v>20984.2</v>
+        <v>22969.98</v>
       </c>
       <c r="D6" t="n">
-        <v>90730.52</v>
+        <v>103377.34</v>
       </c>
       <c r="E6" t="n">
-        <v>7371.51</v>
+        <v>8350.940000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>76815.28</v>
+        <v>80755.69</v>
       </c>
       <c r="G6" t="n">
-        <v>112340.32</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2680.880000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3562.139999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9096.550000000003</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1323.83</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7540.339999999997</v>
-      </c>
-      <c r="M6" t="n">
-        <v>9897.560000000012</v>
+        <v>124523.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22986.41</v>
+        <v>21526.79</v>
       </c>
       <c r="C7" t="n">
-        <v>22969.98</v>
+        <v>20984.2</v>
       </c>
       <c r="D7" t="n">
-        <v>103377.34</v>
+        <v>90730.52</v>
       </c>
       <c r="E7" t="n">
-        <v>8350.940000000001</v>
+        <v>7371.51</v>
       </c>
       <c r="F7" t="n">
-        <v>80755.69</v>
+        <v>76815.28</v>
       </c>
       <c r="G7" t="n">
-        <v>124523.71</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1459.619999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1985.779999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12646.81999999999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>979.4300000000003</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3940.410000000003</v>
-      </c>
-      <c r="M7" t="n">
-        <v>12183.39</v>
+        <v>112340.32</v>
       </c>
     </row>
     <row r="8">
@@ -775,99 +637,51 @@
       <c r="G8" t="n">
         <v>119244.87</v>
       </c>
-      <c r="H8" t="n">
-        <v>22060.36</v>
-      </c>
-      <c r="I8" t="n">
-        <v>22194.22</v>
-      </c>
-      <c r="J8" t="n">
-        <v>97392</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1028.020000000004</v>
-      </c>
-      <c r="M8" t="n">
-        <v>119244.87</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24469.49</v>
+        <v>26209.36</v>
       </c>
       <c r="C9" t="n">
-        <v>26774.32</v>
+        <v>28757.73</v>
       </c>
       <c r="D9" t="n">
-        <v>106724.98</v>
+        <v>116982.93</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>89820.71000000001</v>
+        <v>95888.28999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>130115.92</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2409.130000000001</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4580.099999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9332.979999999996</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>8037</v>
-      </c>
-      <c r="M9" t="n">
-        <v>10871.05</v>
+        <v>144088.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26209.36</v>
+        <v>24469.49</v>
       </c>
       <c r="C10" t="n">
-        <v>28757.73</v>
+        <v>26774.32</v>
       </c>
       <c r="D10" t="n">
-        <v>116982.93</v>
+        <v>106724.98</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>95888.28999999999</v>
+        <v>89820.71000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>144088.91</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1739.869999999999</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1983.41</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10257.95</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>6067.579999999987</v>
-      </c>
-      <c r="M10" t="n">
-        <v>13972.99000000001</v>
+        <v>130115.92</v>
       </c>
     </row>
     <row r="11">
@@ -892,99 +706,51 @@
       <c r="G11" t="n">
         <v>133486.67</v>
       </c>
-      <c r="H11" t="n">
-        <v>25227.48</v>
-      </c>
-      <c r="I11" t="n">
-        <v>25910.81</v>
-      </c>
-      <c r="J11" t="n">
-        <v>108926.01</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>91806.31</v>
-      </c>
-      <c r="M11" t="n">
-        <v>133486.67</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26040.74</v>
+        <v>27690.41</v>
       </c>
       <c r="C12" t="n">
-        <v>30691.44</v>
+        <v>33132.31</v>
       </c>
       <c r="D12" t="n">
-        <v>116555.25</v>
+        <v>124747.05</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>98656.63</v>
+        <v>103495.5</v>
       </c>
       <c r="G12" t="n">
-        <v>143369.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>813.260000000002</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4780.629999999997</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7629.240000000005</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>6850.320000000007</v>
-      </c>
-      <c r="M12" t="n">
-        <v>9882.629999999976</v>
+        <v>152400.69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27690.41</v>
+        <v>26040.74</v>
       </c>
       <c r="C13" t="n">
-        <v>33132.31</v>
+        <v>30691.44</v>
       </c>
       <c r="D13" t="n">
-        <v>124747.05</v>
+        <v>116555.25</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>103495.5</v>
+        <v>98656.63</v>
       </c>
       <c r="G13" t="n">
-        <v>152400.69</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1649.669999999998</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2440.869999999999</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8191.800000000003</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>4838.869999999995</v>
-      </c>
-      <c r="M13" t="n">
-        <v>9031.390000000014</v>
+        <v>143369.3</v>
       </c>
     </row>
     <row r="14">
@@ -1009,22 +775,6 @@
       <c r="G14" t="n">
         <v>154751.77</v>
       </c>
-      <c r="H14" t="n">
-        <v>27307.44</v>
-      </c>
-      <c r="I14" t="n">
-        <v>30154.61</v>
-      </c>
-      <c r="J14" t="n">
-        <v>121909.85</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>50.39999999999418</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2351.079999999987</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1048,22 +798,6 @@
       <c r="G15" t="n">
         <v>167079.839999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>1683.870000000003</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10749.59</v>
-      </c>
-      <c r="J15" t="n">
-        <v>18014.22999999998</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>11351.48000000001</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12328.06999999902</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1085,22 +819,6 @@
         <v>110349.01</v>
       </c>
       <c r="G16" t="n">
-        <v>162024.05</v>
-      </c>
-      <c r="H16" t="n">
-        <v>27562</v>
-      </c>
-      <c r="I16" t="n">
-        <v>36013.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>132627.58</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>110349.01</v>
-      </c>
-      <c r="M16" t="n">
         <v>162024.05</v>
       </c>
     </row>
